--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2537700.719675251</v>
+        <v>2528888.844461881</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10917430.56834551</v>
+        <v>10905152.82246085</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1551622.301889241</v>
+        <v>1555927.233970221</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8722769.880341126</v>
+        <v>8730664.748632809</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>323.6959619980816</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D11" t="n">
-        <v>313.106111847757</v>
+        <v>151.8844266131979</v>
       </c>
       <c r="E11" t="n">
-        <v>340.3534402993358</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>365.2991159687855</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G11" t="n">
-        <v>369.3447958805275</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>162.3410403666942</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>209.418242185976</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>162.4648408449017</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>307.6640389444871</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X11" t="n">
-        <v>328.1541709055431</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y11" t="n">
-        <v>344.6610088831276</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138.2550504090113</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>125.6698913257019</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D13" t="n">
-        <v>107.0385432452864</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>104.8570328736432</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F13" t="n">
-        <v>103.8441182500053</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G13" t="n">
-        <v>124.4488784861023</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H13" t="n">
-        <v>103.1780851413948</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I13" t="n">
-        <v>54.77549063691215</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>47.35522289712138</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S13" t="n">
-        <v>148.1920955585159</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T13" t="n">
-        <v>177.9720195032432</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
-        <v>115.9373386665188</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V13" t="n">
-        <v>210.5607135509021</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W13" t="n">
-        <v>244.9460685636651</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X13" t="n">
-        <v>184.1327256161112</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
-        <v>177.0077235791688</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>323.6959619980816</v>
+        <v>30.47711891194389</v>
       </c>
       <c r="D14" t="n">
-        <v>313.106111847757</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
-        <v>340.3534402993358</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>365.2991159687855</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>369.3447958805275</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>253.0308346143945</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.61083201524988</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>162.3410403666942</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>209.418242185976</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>286.175328697209</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>207.9728933456637</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
-        <v>328.1541709055431</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.2550504090113</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>125.6698913257019</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D16" t="n">
-        <v>107.0385432452864</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>104.8570328736432</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F16" t="n">
-        <v>103.8441182500053</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G16" t="n">
-        <v>124.4488784861023</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>103.1780851413948</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
-        <v>54.77549063691215</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>47.35522289712138</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S16" t="n">
-        <v>148.1920955585159</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T16" t="n">
-        <v>177.9720195032432</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
-        <v>244.6349084326869</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V16" t="n">
-        <v>210.5607135509021</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W16" t="n">
-        <v>244.9460685636651</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X16" t="n">
-        <v>184.1327256161112</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
-        <v>48.3101538130006</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="17">
@@ -1849,19 +1849,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D17" t="n">
-        <v>259.9404756908571</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E17" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G17" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H17" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>280.7771218515423</v>
+        <v>241.6510731180178</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X17" t="n">
         <v>322.7559640598765</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824781</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2004,7 +2004,7 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C19" t="n">
-        <v>120.2716844800363</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D19" t="n">
         <v>101.6403363996198</v>
@@ -2022,7 +2022,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S19" t="n">
         <v>142.7938887128493</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C20" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
-        <v>268.4876729674745</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U20" t="n">
-        <v>204.0200353403094</v>
+        <v>138.8863511991167</v>
       </c>
       <c r="V20" t="n">
         <v>280.7771218515423</v>
@@ -2295,7 +2295,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U22" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V22" t="n">
         <v>205.1625067052354</v>
@@ -2478,7 +2478,7 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C25" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800361</v>
       </c>
       <c r="D25" t="n">
         <v>101.6403363996198</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.9570160514543</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S25" t="n">
         <v>142.7938887128493</v>
       </c>
       <c r="T25" t="n">
-        <v>172.5738126575768</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U25" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V25" t="n">
         <v>205.1625067052354</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>341.1569118905546</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>323.6959619980816</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>313.106111847757</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
-        <v>340.3534402993358</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>289.7242201294537</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>369.3447958805275</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
-        <v>253.0308346143945</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>67.61083201524988</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T26" t="n">
-        <v>162.3410403666942</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
-        <v>209.418242185976</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>286.175328697209</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>307.6640389444871</v>
+        <v>302.2658320988209</v>
       </c>
       <c r="X26" t="n">
-        <v>328.1541709055431</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
-        <v>344.6610088831276</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.557480642842997</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>125.6698913257019</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
-        <v>107.0385432452864</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>104.8570328736432</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>103.8441182500053</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>124.4488784861023</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>103.1780851413948</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>54.77549063691215</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.35522289712138</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S28" t="n">
-        <v>148.1920955585159</v>
+        <v>142.7938887128501</v>
       </c>
       <c r="T28" t="n">
-        <v>177.9720195032432</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>244.6349084326869</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>210.5607135509021</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>244.9460685636651</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>184.1327256161112</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>177.0077235791688</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>341.1569118905546</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>323.6959619980816</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D29" t="n">
-        <v>313.106111847757</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
-        <v>340.3534402993358</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>365.2991159687855</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>361.3807320564457</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
-        <v>253.0308346143945</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>62.21262516958321</v>
       </c>
       <c r="T29" t="n">
-        <v>162.3410403666942</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U29" t="n">
-        <v>209.418242185976</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V29" t="n">
-        <v>286.175328697209</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>307.6640389444871</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>328.1541709055431</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
-        <v>344.6610088831276</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>138.2550504090113</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>125.6698913257019</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
-        <v>82.18509172912337</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E31" t="n">
-        <v>104.8570328736432</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G31" t="n">
-        <v>124.4488784861023</v>
+        <v>119.050671640437</v>
       </c>
       <c r="H31" t="n">
-        <v>103.1780851413948</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I31" t="n">
-        <v>54.77549063691215</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.35522289712138</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S31" t="n">
-        <v>148.1920955585159</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>177.9720195032432</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>244.6349084326869</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V31" t="n">
-        <v>210.5607135509021</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>244.9460685636651</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>184.1327256161112</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y31" t="n">
-        <v>177.0077235791688</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.2126251695837</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247712</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043396</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.9570160514552</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3243,7 +3243,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.23670158702</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3277,13 +3277,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G35" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H35" t="n">
-        <v>205.3072713607635</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210276</v>
+        <v>56.9824000887642</v>
       </c>
       <c r="U35" t="n">
         <v>204.0200353403094</v>
@@ -3328,7 +3328,7 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>322.7559640598765</v>
@@ -3432,19 +3432,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3480,10 +3480,10 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052358</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W37" t="n">
         <v>239.5478617179984</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C38" t="n">
         <v>318.297755152415</v>
@@ -3520,7 +3520,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>63.54448988428433</v>
+        <v>179.4384479484341</v>
       </c>
       <c r="W38" t="n">
         <v>302.2658320988205</v>
@@ -3669,19 +3669,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797715</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
         <v>172.5738126575766</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>371.9374279721474</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>354.4764780796743</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>343.8866279293497</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>371.1339563809286</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>396.0796320503782</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>400.1253119621202</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>193.1215564482869</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>316.9558447788017</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>103.3444075588103</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>375.4415249647204</v>
+        <v>205.1127822067372</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>169.0355664906041</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>137.8190593268791</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>133.9586012229876</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>178.9726116401087</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>208.752535584836</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.4154245142797</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>241.3412296324948</v>
+        <v>236.959225451686</v>
       </c>
       <c r="W43" t="n">
-        <v>275.7265846452578</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>214.9132416977039</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.89227305560011</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>371.9374279721474</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>110.3991740733345</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>371.1339563809286</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>396.0796320503782</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>400.1253119621202</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>30.78051608159274</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>98.39134809684262</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>193.1215564482869</v>
+        <v>64.3701233831905</v>
       </c>
       <c r="U44" t="n">
-        <v>240.1987582675688</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>316.9558447788017</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>338.4445550260798</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>358.9346869871358</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>169.0355664906041</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>53.81525458746368</v>
+        <v>42.67804628306402</v>
       </c>
       <c r="D46" t="n">
-        <v>137.8190593268791</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>135.637548955236</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>134.624634331598</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>155.229394567695</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>133.9586012229876</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>85.55600671850488</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>78.13573897871412</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>178.9726116401087</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>241.3412296324948</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>214.9132416977039</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>207.7882396607616</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1795.602445719545</v>
+        <v>1522.73666965675</v>
       </c>
       <c r="C11" t="n">
-        <v>1468.636827539664</v>
+        <v>1201.223785664411</v>
       </c>
       <c r="D11" t="n">
-        <v>1152.368027693445</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="E11" t="n">
-        <v>808.576673855732</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F11" t="n">
-        <v>439.5876678266557</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218342</v>
@@ -5041,19 +5041,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5071,22 +5071,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3161.624972753924</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2950.091394788291</v>
+        <v>3119.524977831081</v>
       </c>
       <c r="V11" t="n">
-        <v>2785.985494944956</v>
+        <v>2835.911723435584</v>
       </c>
       <c r="W11" t="n">
-        <v>2475.213738435374</v>
+        <v>2530.592701113543</v>
       </c>
       <c r="X11" t="n">
-        <v>2143.744878934825</v>
+        <v>2204.576575800536</v>
       </c>
       <c r="Y11" t="n">
-        <v>1795.602445719545</v>
+        <v>1861.886876772798</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M12" t="n">
         <v>1212.42807043813</v>
@@ -5144,16 +5144,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199866</v>
@@ -5165,7 +5165,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>797.6353891180886</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C13" t="n">
-        <v>670.696104950713</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D13" t="n">
-        <v>562.5763642989085</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E13" t="n">
-        <v>456.6601694770466</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F13" t="n">
-        <v>351.7671207396675</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G13" t="n">
-        <v>226.0611828749177</v>
+        <v>215.1557144998339</v>
       </c>
       <c r="H13" t="n">
-        <v>121.8408948533068</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>152.7959093543157</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K13" t="n">
-        <v>397.9442527783887</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L13" t="n">
-        <v>755.6652117020815</v>
+        <v>771.6978860337116</v>
       </c>
       <c r="M13" t="n">
-        <v>1140.983417776827</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N13" t="n">
-        <v>1523.552954957888</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O13" t="n">
-        <v>1864.043714353498</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P13" t="n">
-        <v>2137.812375262355</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
-        <v>2256.583831890066</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R13" t="n">
-        <v>2208.750273408125</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S13" t="n">
-        <v>2059.061287995483</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T13" t="n">
-        <v>1879.29157132554</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U13" t="n">
-        <v>1762.183148430067</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V13" t="n">
-        <v>1549.495558984711</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1302.075287708282</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X13" t="n">
-        <v>1116.082635570796</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y13" t="n">
-        <v>937.286955187797</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2051.189147350246</v>
+        <v>1364.208554989044</v>
       </c>
       <c r="C14" t="n">
-        <v>1724.223529170366</v>
+        <v>1333.423586391121</v>
       </c>
       <c r="D14" t="n">
-        <v>1407.954729324146</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E14" t="n">
-        <v>1064.163375486434</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="F14" t="n">
-        <v>695.1743694573572</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G14" t="n">
-        <v>322.098818062885</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
@@ -5293,37 +5293,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3257.312051896798</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3093.331203041551</v>
+        <v>3167.077706941466</v>
       </c>
       <c r="U14" t="n">
-        <v>2881.797625075919</v>
+        <v>2960.996863163376</v>
       </c>
       <c r="V14" t="n">
-        <v>2592.731636492879</v>
+        <v>2677.383608767879</v>
       </c>
       <c r="W14" t="n">
-        <v>2382.658006850795</v>
+        <v>2372.064586445838</v>
       </c>
       <c r="X14" t="n">
-        <v>2051.189147350246</v>
+        <v>2046.048461132831</v>
       </c>
       <c r="Y14" t="n">
-        <v>2051.189147350246</v>
+        <v>1703.358762105093</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
         <v>2407.411984886741</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>797.6353891180886</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C16" t="n">
-        <v>670.696104950713</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D16" t="n">
-        <v>562.5763642989085</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E16" t="n">
-        <v>456.6601694770467</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F16" t="n">
-        <v>351.7671207396676</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G16" t="n">
-        <v>226.0611828749178</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H16" t="n">
-        <v>121.8408948533068</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>152.7959093543157</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K16" t="n">
-        <v>397.9442527783888</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L16" t="n">
-        <v>755.6652117020816</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M16" t="n">
-        <v>1140.983417776827</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N16" t="n">
-        <v>1523.552954957889</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O16" t="n">
-        <v>1864.043714353499</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P16" t="n">
-        <v>2137.812375262355</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
-        <v>2256.583831890066</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R16" t="n">
-        <v>2208.750273408125</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S16" t="n">
-        <v>2059.061287995483</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T16" t="n">
-        <v>1879.29157132554</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U16" t="n">
-        <v>1632.185603211715</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V16" t="n">
-        <v>1419.498013766359</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1172.07774248993</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X16" t="n">
-        <v>986.0850903524441</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>937.286955187797</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1606.686541786254</v>
+        <v>1768.338774781834</v>
       </c>
       <c r="C17" t="n">
-        <v>1285.173657793916</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D17" t="n">
-        <v>1022.607520732444</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E17" t="n">
-        <v>684.2689010822731</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F17" t="n">
-        <v>684.2689010822731</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G17" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5527,40 +5527,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3262.76478608434</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3104.236671416635</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2898.155827638545</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2614.542573243048</v>
+        <v>3081.513828560668</v>
       </c>
       <c r="W17" t="n">
-        <v>2614.542573243048</v>
+        <v>2776.194806238627</v>
       </c>
       <c r="X17" t="n">
-        <v>2288.526447930041</v>
+        <v>2450.178680925621</v>
       </c>
       <c r="Y17" t="n">
-        <v>1945.836748902303</v>
+        <v>2107.488981897883</v>
       </c>
     </row>
     <row r="18">
@@ -5570,70 +5570,70 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052953</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C19" t="n">
         <v>637.9796998254607</v>
@@ -5670,13 +5670,13 @@
         <v>116.3881606657648</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L19" t="n">
         <v>771.6978860337115</v>
@@ -5691,7 +5691,7 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P19" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q19" t="n">
         <v>2299.337630107746</v>
@@ -5709,16 +5709,16 @@
         <v>1696.750338179563</v>
       </c>
       <c r="V19" t="n">
-        <v>1489.51548292175</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W19" t="n">
-        <v>1247.547945832863</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X19" t="n">
         <v>1067.008027882918</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.6650816874617</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1640.517726580261</v>
+        <v>1430.000155131663</v>
       </c>
       <c r="C20" t="n">
-        <v>1319.004842587923</v>
+        <v>1108.487271139325</v>
       </c>
       <c r="D20" t="n">
-        <v>1047.805172923807</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="E20" t="n">
-        <v>1047.805172923807</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F20" t="n">
-        <v>684.2689010822731</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G20" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5752,10 +5752,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5779,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3104.236671416635</v>
+        <v>3167.077706941466</v>
       </c>
       <c r="U20" t="n">
-        <v>2898.155827638544</v>
+        <v>3026.788463305995</v>
       </c>
       <c r="V20" t="n">
-        <v>2614.542573243047</v>
+        <v>2743.175208910498</v>
       </c>
       <c r="W20" t="n">
-        <v>2309.223550921006</v>
+        <v>2437.856186588457</v>
       </c>
       <c r="X20" t="n">
-        <v>1983.207425608</v>
+        <v>2111.84006127545</v>
       </c>
       <c r="Y20" t="n">
-        <v>1640.517726580261</v>
+        <v>1769.150362247712</v>
       </c>
     </row>
     <row r="21">
@@ -5831,13 +5831,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C23" t="n">
         <v>1711.594658697162</v>
       </c>
       <c r="D23" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E23" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467796</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G23" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J23" t="n">
         <v>270.0260478557146</v>
@@ -6004,37 +6004,37 @@
         <v>2456.09431497013</v>
       </c>
       <c r="O23" t="n">
-        <v>3036.687329075027</v>
+        <v>3145.076209411489</v>
       </c>
       <c r="P23" t="n">
-        <v>3750.042416521973</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q23" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R23" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S23" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T23" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U23" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W23" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X23" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y23" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J24" t="n">
         <v>174.8241863873065</v>
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698009</v>
       </c>
       <c r="C25" t="n">
         <v>652.6145002899665</v>
@@ -6144,16 +6144,16 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I25" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J25" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K25" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L25" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M25" t="n">
         <v>1176.995117350173</v>
@@ -6168,7 +6168,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q25" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R25" t="n">
         <v>2271.591606277853</v>
@@ -6183,7 +6183,7 @@
         <v>1711.385138644069</v>
       </c>
       <c r="V25" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W25" t="n">
         <v>1262.182746297368</v>
@@ -6192,7 +6192,7 @@
         <v>1081.642828347424</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519673</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1989.485669189164</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1662.520051009284</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1346.251251163065</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1002.459897325352</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>709.809169921863</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
-        <v>336.7336185273907</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L26" t="n">
-        <v>1468.364237198916</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M26" t="n">
-        <v>2305.516762226676</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285459</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164796</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521974</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3989.052075122085</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3825.071226266838</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3613.537648301206</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3324.471659718167</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
-        <v>3013.699903208584</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2682.231043708035</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2334.088610492755</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>812.2701895825943</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C28" t="n">
-        <v>685.3309054152187</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D28" t="n">
-        <v>577.2111647634142</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E28" t="n">
-        <v>471.2949699415524</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>366.4019212041733</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>240.6959833394235</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
-        <v>136.4756953178126</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>167.4307098188214</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>412.5790532428945</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>770.3000121665873</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M28" t="n">
-        <v>1155.618218241333</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
-        <v>1538.187755422394</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
-        <v>1878.678514818004</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2152.44717572686</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2271.218632354572</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
-        <v>2223.385073872631</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S28" t="n">
-        <v>2073.696088459988</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1893.926371790046</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>1646.820403676221</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1434.132814230865</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1186.712542954436</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>1000.71989081695</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>821.9242104339509</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2057.779438901538</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1730.813820721658</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1414.545020875438</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1070.753667037725</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>701.764661008649</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G29" t="n">
-        <v>336.7336185273907</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>771.2510705659141</v>
+        <v>1045.699547878784</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1496.733761127192</v>
       </c>
       <c r="M29" t="n">
-        <v>2095.324921473371</v>
+        <v>2030.265665799117</v>
       </c>
       <c r="N29" t="n">
-        <v>2642.103738532153</v>
+        <v>2577.044482857899</v>
       </c>
       <c r="O29" t="n">
-        <v>3145.07620941149</v>
+        <v>3080.016953737236</v>
       </c>
       <c r="P29" t="n">
-        <v>3539.850575768668</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>4057.345844834459</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3893.364995979212</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3681.831418013579</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3392.76542943054</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
-        <v>3081.993672920958</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2750.524813420409</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2402.382380205128</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>682.2726443642424</v>
+        <v>774.1010502698011</v>
       </c>
       <c r="C31" t="n">
-        <v>555.3333601968668</v>
+        <v>652.6145002899675</v>
       </c>
       <c r="D31" t="n">
-        <v>472.3181160260351</v>
+        <v>549.9474938257051</v>
       </c>
       <c r="E31" t="n">
-        <v>366.4019212041733</v>
+        <v>449.4840331913854</v>
       </c>
       <c r="F31" t="n">
-        <v>366.4019212041733</v>
+        <v>350.0437186415484</v>
       </c>
       <c r="G31" t="n">
-        <v>240.6959833394235</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
-        <v>136.4756953178126</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>167.4307098188214</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>412.5790532428945</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L31" t="n">
-        <v>770.3000121665873</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M31" t="n">
-        <v>1155.618218241333</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
-        <v>1538.187755422394</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O31" t="n">
-        <v>1878.678514818004</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2152.44717572686</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2271.218632354572</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
-        <v>2223.385073872631</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S31" t="n">
-        <v>2073.696088459988</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T31" t="n">
-        <v>1893.926371790046</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1646.820403676221</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
-        <v>1434.132814230865</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W31" t="n">
-        <v>1186.712542954436</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
-        <v>1000.71989081695</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>821.9242104339509</v>
+        <v>908.2998821519675</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038484</v>
@@ -6688,52 +6688,52 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L32" t="n">
-        <v>1468.364237198916</v>
+        <v>1543.189242259776</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.89614187084</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N32" t="n">
-        <v>2642.103738532153</v>
+        <v>2623.499963990483</v>
       </c>
       <c r="O32" t="n">
-        <v>3145.07620941149</v>
+        <v>3126.47243486982</v>
       </c>
       <c r="P32" t="n">
-        <v>3539.850575768668</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
         <v>3346.282596468334</v>
@@ -6742,7 +6742,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2433.836156782226</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>2259.383127501099</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
-        <v>2110.448717839848</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>1951.211262834392</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
-        <v>1804.676704861277</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>1668.313604693895</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H33" t="n">
-        <v>1577.811710331763</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>1558.804418733301</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>1652.481688223918</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>1890.745887204266</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>2257.444047516931</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
-        <v>2704.720372739247</v>
+        <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>3178.243416293701</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
-        <v>3589.204695711756</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>3899.704287187859</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q33" t="n">
-        <v>4057.345844834459</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R33" t="n">
-        <v>4057.201491426974</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S33" t="n">
-        <v>3927.763604920454</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T33" t="n">
-        <v>3735.120604598309</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U33" t="n">
-        <v>3507.052757732725</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>3271.900649500982</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W33" t="n">
-        <v>3017.663292772781</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X33" t="n">
-        <v>2809.811792567248</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
-        <v>2602.051493802294</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698009</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899673</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257049</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913851</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
         <v>229.7905149643394</v>
@@ -6855,7 +6855,7 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960314</v>
@@ -6882,10 +6882,10 @@
         <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T34" t="n">
         <v>1953.038372570352</v>
@@ -6894,7 +6894,7 @@
         <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297368</v>
@@ -6903,7 +6903,7 @@
         <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519673</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1301.367519464212</v>
+        <v>1707.656676566317</v>
       </c>
       <c r="C35" t="n">
-        <v>979.854635471874</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="D35" t="n">
-        <v>979.854635471874</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E35" t="n">
-        <v>641.516015821703</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F35" t="n">
-        <v>641.516015821703</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G35" t="n">
-        <v>273.8931986147728</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912079</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
         <v>3262.764786084339</v>
       </c>
       <c r="T35" t="n">
-        <v>3104.236671416634</v>
+        <v>3205.206806196698</v>
       </c>
       <c r="U35" t="n">
-        <v>2898.155827638544</v>
+        <v>2999.125962418608</v>
       </c>
       <c r="V35" t="n">
-        <v>2614.542573243047</v>
+        <v>2715.51270802311</v>
       </c>
       <c r="W35" t="n">
-        <v>2309.223550921006</v>
+        <v>2715.51270802311</v>
       </c>
       <c r="X35" t="n">
-        <v>1983.207425607999</v>
+        <v>2389.496582710104</v>
       </c>
       <c r="Y35" t="n">
-        <v>1640.517726580261</v>
+        <v>2046.806883682365</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>827.0643955080129</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C37" t="n">
-        <v>637.9796998254607</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D37" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E37" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F37" t="n">
         <v>335.4089181770414</v>
       </c>
       <c r="G37" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H37" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K37" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L37" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M37" t="n">
         <v>1162.360316885667</v>
@@ -7140,7 +7140,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y37" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2018.472742224994</v>
+        <v>1768.338774781834</v>
       </c>
       <c r="C38" t="n">
-        <v>1696.959858232656</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D38" t="n">
-        <v>1386.143792573978</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E38" t="n">
-        <v>1047.805172923807</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F38" t="n">
-        <v>684.2689010822731</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G38" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
@@ -7174,16 +7174,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7207,19 +7207,19 @@
         <v>3262.764786084339</v>
       </c>
       <c r="U38" t="n">
-        <v>3056.683942306249</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="V38" t="n">
-        <v>2992.49758888778</v>
+        <v>3081.513828560668</v>
       </c>
       <c r="W38" t="n">
-        <v>2687.178566565739</v>
+        <v>2776.194806238627</v>
       </c>
       <c r="X38" t="n">
-        <v>2361.162441252732</v>
+        <v>2450.178680925621</v>
       </c>
       <c r="Y38" t="n">
-        <v>2018.472742224994</v>
+        <v>2107.488981897883</v>
       </c>
     </row>
     <row r="39">
@@ -7259,7 +7259,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052949</v>
       </c>
       <c r="C40" t="n">
-        <v>637.9796998254607</v>
+        <v>637.9796998254612</v>
       </c>
       <c r="D40" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611989</v>
       </c>
       <c r="E40" t="n">
         <v>434.8492327268785</v>
@@ -7335,7 +7335,7 @@
         <v>158.1401341315256</v>
       </c>
       <c r="K40" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L40" t="n">
         <v>771.6978860337115</v>
@@ -7377,7 +7377,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y40" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874612</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1951.059597646781</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C41" t="n">
-        <v>1593.002549081453</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>1245.642318849787</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>870.7595346266264</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>470.6790982121029</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
         <v>66.51211643218342</v>
@@ -7411,16 +7411,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7441,22 +7441,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3130.533542368477</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3130.533542368477</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2810.376123399991</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W41" t="n">
-        <v>2705.987832936546</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X41" t="n">
-        <v>2705.987832936546</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y41" t="n">
-        <v>2326.753969335819</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>341.0350058764932</v>
+        <v>478.9911633238872</v>
       </c>
       <c r="C43" t="n">
-        <v>341.0350058764932</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D43" t="n">
-        <v>201.8238348392416</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E43" t="n">
-        <v>201.8238348392416</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F43" t="n">
-        <v>201.8238348392416</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G43" t="n">
-        <v>201.8238348392416</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>122.3231984335389</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>336.9988309368351</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
-        <v>664.2470789397512</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>1019.09257409372</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
-        <v>1371.189400354005</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>1681.207448828838</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P43" t="n">
-        <v>1924.503398816917</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>2012.802144523852</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>2012.802144523852</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1832.021728725762</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1621.160581670372</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U43" t="n">
-        <v>1342.9631831711</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V43" t="n">
-        <v>1099.184163340297</v>
+        <v>1398.838928232635</v>
       </c>
       <c r="W43" t="n">
-        <v>820.6724616784206</v>
+        <v>1109.421758195675</v>
       </c>
       <c r="X43" t="n">
-        <v>603.5883791554874</v>
+        <v>881.4322072976571</v>
       </c>
       <c r="Y43" t="n">
-        <v>511.7780023316488</v>
+        <v>660.639628154127</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1388.248066481026</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C44" t="n">
-        <v>1388.248066481026</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D44" t="n">
-        <v>1276.733749235234</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>901.8509650120736</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>501.7705285975501</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>97.60354681763063</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
-        <v>97.60354681763063</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7675,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3226.22062151135</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3031.148342270656</v>
+        <v>3150.294826486578</v>
       </c>
       <c r="U44" t="n">
-        <v>2788.523333919577</v>
+        <v>3150.294826486578</v>
       </c>
       <c r="V44" t="n">
-        <v>2468.36591495109</v>
+        <v>3150.294826486578</v>
       </c>
       <c r="W44" t="n">
-        <v>2126.50272805606</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X44" t="n">
-        <v>1763.942438170064</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y44" t="n">
-        <v>1763.942438170064</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="45">
@@ -7733,7 +7733,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>911.6035302810362</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="C46" t="n">
-        <v>857.2446872633961</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D46" t="n">
-        <v>718.0335162261445</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E46" t="n">
-        <v>581.0258910188354</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F46" t="n">
-        <v>445.0414118960092</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G46" t="n">
-        <v>288.2440436458122</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H46" t="n">
-        <v>152.932325238754</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>122.3231984335389</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>336.9988309368351</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>664.2470789397512</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>1019.09257409372</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
-        <v>1371.189400354005</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>1681.207448828838</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P46" t="n">
-        <v>1924.503398816917</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>2012.802144523852</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1933.877155656464</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1753.096739858374</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>1753.096739858374</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U46" t="n">
-        <v>1753.096739858374</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V46" t="n">
-        <v>1509.317720027571</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W46" t="n">
-        <v>1509.317720027571</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X46" t="n">
-        <v>1292.233637504638</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y46" t="n">
-        <v>1082.346526736192</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>213.7089309661116</v>
+        <v>215.9195328086746</v>
       </c>
       <c r="L2" t="n">
-        <v>227.8503193726002</v>
+        <v>230.592766433086</v>
       </c>
       <c r="M2" t="n">
-        <v>221.5380516068512</v>
+        <v>224.5895523746189</v>
       </c>
       <c r="N2" t="n">
-        <v>220.4623563888806</v>
+        <v>223.5632336293166</v>
       </c>
       <c r="O2" t="n">
-        <v>221.6463124176202</v>
+        <v>224.5743828652377</v>
       </c>
       <c r="P2" t="n">
-        <v>224.0194954968931</v>
+        <v>226.5185358806307</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>124.3018764260165</v>
+        <v>125.1803601062657</v>
       </c>
       <c r="K3" t="n">
-        <v>133.5074379247318</v>
+        <v>135.0089064570996</v>
       </c>
       <c r="L3" t="n">
-        <v>132.7267805197011</v>
+        <v>134.7456902541952</v>
       </c>
       <c r="M3" t="n">
-        <v>135.3335004554958</v>
+        <v>137.6894728898301</v>
       </c>
       <c r="N3" t="n">
-        <v>124.3611887315708</v>
+        <v>126.7795167458272</v>
       </c>
       <c r="O3" t="n">
-        <v>136.210429333514</v>
+        <v>138.4227270078318</v>
       </c>
       <c r="P3" t="n">
-        <v>128.8492278044037</v>
+        <v>130.6247917276519</v>
       </c>
       <c r="Q3" t="n">
-        <v>136.5557272449332</v>
+        <v>137.7426447060526</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8142,16 +8142,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>131.5393333932398</v>
+        <v>132.6982918288272</v>
       </c>
       <c r="M4" t="n">
-        <v>135.3985889238948</v>
+        <v>136.6205480962584</v>
       </c>
       <c r="N4" t="n">
-        <v>124.2422182555182</v>
+        <v>125.4351219699761</v>
       </c>
       <c r="O4" t="n">
-        <v>135.2760693786741</v>
+        <v>136.377909036037</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8218,25 +8218,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>205.4442697784021</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L5" t="n">
-        <v>217.5972763579134</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M5" t="n">
-        <v>210.1295657031227</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N5" t="n">
-        <v>208.869269256025</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O5" t="n">
-        <v>210.699288979312</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P5" t="n">
-        <v>214.6764642606354</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q5" t="n">
-        <v>209.8724242356517</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>121.0175355572085</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K6" t="n">
-        <v>127.8939762578221</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L6" t="n">
-        <v>125.1787885643444</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M6" t="n">
-        <v>126.525349859375</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N6" t="n">
-        <v>115.3199125986408</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O6" t="n">
-        <v>127.9394280285502</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P6" t="n">
-        <v>122.2110200728145</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q6" t="n">
-        <v>132.1182611734515</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8379,19 +8379,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>127.2063962643796</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M7" t="n">
-        <v>130.8301142441261</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N7" t="n">
-        <v>119.7823716925915</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O7" t="n">
-        <v>131.1566792307275</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P7" t="n">
-        <v>131.4817133958341</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -9652,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>78.40458911672783</v>
+        <v>187.8883066283053</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>306.6874953089252</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>277.2206841544135</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,13 +10114,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>277.2206841544135</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>342.9371040273969</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>94.37250464902024</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>165.390262243154</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>-9.947598300641403e-13</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.25257452796786</v>
+        <v>15.26995296093515</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.18760269193543</v>
+        <v>15.21022140383137</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>341.1569118905546</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>155.8234783888924</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>253.0308346143945</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.61083201524988</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>123.7104878523073</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>128.6975697661682</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>341.1569118905546</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>287.8206362404711</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>99.69114559882331</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>344.6610088831276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>128.6975697661682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23737,19 +23737,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>47.76742931123329</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>39.1260487335245</v>
       </c>
       <c r="W17" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>39.22023203461595</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>334.9552334536692</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>65.13368414119276</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>75.57489583933176</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>128.6975697661684</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>7.964063824081848</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>67.61083201524988</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.85345151616303</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>103.8441182500053</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>42.32535640796439</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>99.96043343226339</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25447,10 +25447,10 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V38" t="n">
-        <v>217.232631967258</v>
+        <v>101.3386739031082</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>283.8113506959872</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>30.78051608159274</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>98.39134809684262</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>240.1987582675688</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>235.1001474672696</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>358.9346869871358</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>181.1251564493164</v>
       </c>
     </row>
     <row r="42">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>156.4504074072946</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>135.637548955236</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>134.624634331598</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>155.229394567695</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>85.55600671850488</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>78.13573897871412</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>15.17841787214203</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>116.8959666051615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>354.4764780796743</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>233.4874538560152</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>283.8113506959872</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>139.5478467564296</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>375.4415249647204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>102.6351528198309</v>
+        <v>124.5687748155638</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>208.752535584836</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.4154245142797</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>275.7265846452578</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>841501.4763035881</v>
+        <v>842314.8201637656</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>838349.0603900719</v>
+        <v>839497.2108816641</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>708528.6219588429</v>
+        <v>716950.2875883018</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>708528.621958843</v>
+        <v>716950.2875883018</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>716950.2875883019</v>
+        <v>716950.2875883018</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>783864.3378571229</v>
+        <v>792286.0034865818</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>783864.3378571228</v>
+        <v>792286.0034865818</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>716950.2875883018</v>
+        <v>716950.2875883017</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>716950.2875883018</v>
+        <v>716950.2875883017</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>658242.0077354113</v>
+        <v>640603.7365364004</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>658242.0077354113</v>
+        <v>640603.7365364005</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>675906.2736449244</v>
+        <v>675905.1324032311</v>
       </c>
       <c r="C2" t="n">
-        <v>675910.5403453964</v>
+        <v>675909.0549745861</v>
       </c>
       <c r="D2" t="n">
-        <v>675964.9613716222</v>
+        <v>675964.961371622</v>
       </c>
       <c r="E2" t="n">
-        <v>623226.8678679805</v>
+        <v>630738.0831591199</v>
       </c>
       <c r="F2" t="n">
-        <v>623226.8678679806</v>
+        <v>630738.0831591202</v>
       </c>
       <c r="G2" t="n">
-        <v>630738.083159121</v>
+        <v>630738.0831591202</v>
       </c>
       <c r="H2" t="n">
+        <v>630738.0831591203</v>
+      </c>
+      <c r="I2" t="n">
+        <v>677359.4601380345</v>
+      </c>
+      <c r="J2" t="n">
+        <v>677359.4601380345</v>
+      </c>
+      <c r="K2" t="n">
+        <v>677359.4601380345</v>
+      </c>
+      <c r="L2" t="n">
+        <v>677359.4601380345</v>
+      </c>
+      <c r="M2" t="n">
+        <v>630738.0831591201</v>
+      </c>
+      <c r="N2" t="n">
         <v>630738.0831591211</v>
       </c>
-      <c r="I2" t="n">
-        <v>677359.4601380342</v>
-      </c>
-      <c r="J2" t="n">
-        <v>669848.2448468941</v>
-      </c>
-      <c r="K2" t="n">
-        <v>669848.2448468944</v>
-      </c>
-      <c r="L2" t="n">
-        <v>677359.4601380342</v>
-      </c>
-      <c r="M2" t="n">
-        <v>630738.0831591211</v>
-      </c>
-      <c r="N2" t="n">
-        <v>630738.083159121</v>
-      </c>
       <c r="O2" t="n">
-        <v>578376.6443714065</v>
+        <v>562645.2133020189</v>
       </c>
       <c r="P2" t="n">
-        <v>578376.6443714069</v>
+        <v>562645.2133020191</v>
       </c>
     </row>
     <row r="3">
@@ -26365,37 +26365,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12024.00450509394</v>
+        <v>7858.416128275133</v>
       </c>
       <c r="C3" t="n">
-        <v>14716.91660390593</v>
+        <v>13529.92924625001</v>
       </c>
       <c r="D3" t="n">
-        <v>176541.3967958103</v>
+        <v>181359.9284513112</v>
       </c>
       <c r="E3" t="n">
-        <v>968406.6111856661</v>
+        <v>972725.1766621994</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4318.565476533462</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48646.25967902289</v>
+        <v>48646.25967902286</v>
       </c>
       <c r="J3" t="n">
-        <v>28942.97834180747</v>
+        <v>37580.1092948741</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>8637.130953066577</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>161600.4331051143</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427547.7679904288</v>
+        <v>428706.7239496087</v>
       </c>
       <c r="C4" t="n">
-        <v>423262.4883495221</v>
+        <v>424732.6838236327</v>
       </c>
       <c r="D4" t="n">
         <v>370434.2549872374</v>
       </c>
       <c r="E4" t="n">
-        <v>52395.73565602441</v>
+        <v>57605.61344858626</v>
       </c>
       <c r="F4" t="n">
-        <v>52395.7356560244</v>
+        <v>57605.61344858622</v>
       </c>
       <c r="G4" t="n">
         <v>57605.61344858622</v>
       </c>
       <c r="H4" t="n">
-        <v>57605.61344858622</v>
+        <v>57605.61344858621</v>
       </c>
       <c r="I4" t="n">
-        <v>80755.36360646594</v>
+        <v>80755.36360646592</v>
       </c>
       <c r="J4" t="n">
-        <v>75545.48581390412</v>
+        <v>80755.36360646595</v>
       </c>
       <c r="K4" t="n">
-        <v>75545.48581390412</v>
+        <v>80755.36360646598</v>
       </c>
       <c r="L4" t="n">
-        <v>80755.36360646594</v>
+        <v>80755.36360646595</v>
       </c>
       <c r="M4" t="n">
-        <v>57605.61344858623</v>
+        <v>57605.61344858621</v>
       </c>
       <c r="N4" t="n">
-        <v>57605.61344858623</v>
+        <v>57605.61344858625</v>
       </c>
       <c r="O4" t="n">
-        <v>21290.61675477787</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="P4" t="n">
-        <v>21290.61675477786</v>
+        <v>10380.34706710378</v>
       </c>
     </row>
     <row r="5">
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33899.6213386609</v>
+        <v>33805.38244128753</v>
       </c>
       <c r="C5" t="n">
-        <v>34251.94736250573</v>
+        <v>34129.29174257201</v>
       </c>
       <c r="D5" t="n">
         <v>38745.80483114667</v>
       </c>
       <c r="E5" t="n">
-        <v>77801.6714704734</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="F5" t="n">
-        <v>77801.67147047342</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="H5" t="n">
         <v>78255.49332178176</v>
@@ -26493,10 +26493,10 @@
         <v>89377.94167480612</v>
       </c>
       <c r="J5" t="n">
-        <v>88924.11982349778</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>88924.11982349778</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
         <v>89377.94167480612</v>
@@ -26505,13 +26505,13 @@
         <v>78255.49332178175</v>
       </c>
       <c r="N5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="O5" t="n">
-        <v>75213.98426401</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>75213.98426401</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>202434.8798107408</v>
+        <v>205490.5393466415</v>
       </c>
       <c r="C6" t="n">
-        <v>203679.1880294626</v>
+        <v>203473.1984905119</v>
       </c>
       <c r="D6" t="n">
-        <v>90243.50475742784</v>
+        <v>85382.71556355068</v>
       </c>
       <c r="E6" t="n">
-        <v>-475377.1504441834</v>
+        <v>-479260.9692728085</v>
       </c>
       <c r="F6" t="n">
-        <v>493029.4607414828</v>
+        <v>493464.2073893912</v>
       </c>
       <c r="G6" t="n">
-        <v>490558.4109122196</v>
+        <v>493464.2073893912</v>
       </c>
       <c r="H6" t="n">
-        <v>494876.9763887533</v>
+        <v>493464.2073893913</v>
       </c>
       <c r="I6" t="n">
-        <v>458579.8951777391</v>
+        <v>458579.8951777397</v>
       </c>
       <c r="J6" t="n">
-        <v>476435.6608676847</v>
+        <v>469646.0455618883</v>
       </c>
       <c r="K6" t="n">
-        <v>505378.6392094925</v>
+        <v>507226.1548567624</v>
       </c>
       <c r="L6" t="n">
-        <v>498589.0239036955</v>
+        <v>507226.1548567624</v>
       </c>
       <c r="M6" t="n">
-        <v>333276.5432836389</v>
+        <v>331863.7742842768</v>
       </c>
       <c r="N6" t="n">
-        <v>494876.976388753</v>
+        <v>493464.2073893921</v>
       </c>
       <c r="O6" t="n">
-        <v>481872.0433526187</v>
+        <v>474482.3363754607</v>
       </c>
       <c r="P6" t="n">
-        <v>481872.043352619</v>
+        <v>474482.3363754608</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F2" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G2" t="n">
         <v>46.97513661859256</v>
@@ -26709,25 +26709,25 @@
         <v>46.97513661859256</v>
       </c>
       <c r="J2" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O2" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.47804305783955</v>
+        <v>8.155157857226015</v>
       </c>
       <c r="C3" t="n">
-        <v>28.63978727090512</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="D3" t="n">
         <v>234.7800381259942</v>
@@ -26752,7 +26752,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.398206845666607</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>36.17872292725934</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.47804305783955</v>
+        <v>8.155157857226015</v>
       </c>
       <c r="C3" t="n">
-        <v>16.16174421306557</v>
+        <v>14.85822482956331</v>
       </c>
       <c r="D3" t="n">
-        <v>206.1402508550891</v>
+        <v>211.7666554392049</v>
       </c>
       <c r="E3" t="n">
         <v>854.9966624673041</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>182.9350058063218</v>
+        <v>182.9350058063217</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959706</v>
+        <v>648.4664495959709</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.398206845666607</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>36.17872292725934</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,13 +27396,13 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>338.9610704234411</v>
+        <v>339.1390473000674</v>
       </c>
       <c r="I2" t="n">
-        <v>208.5419810076426</v>
+        <v>209.2119630446141</v>
       </c>
       <c r="J2" t="n">
-        <v>7.691768522530872</v>
+        <v>9.16674129758845</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,19 +27423,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.573660934093467</v>
+        <v>6.450336187189967</v>
       </c>
       <c r="R2" t="n">
-        <v>146.7180671985084</v>
+        <v>147.80971518839</v>
       </c>
       <c r="S2" t="n">
-        <v>207.8769805161729</v>
+        <v>208.272991557415</v>
       </c>
       <c r="T2" t="n">
-        <v>222.876261087807</v>
+        <v>222.9523351781213</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3416398688631</v>
+        <v>251.3430301435005</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27472,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3166775988975</v>
+        <v>137.3259758802724</v>
       </c>
       <c r="H3" t="n">
-        <v>111.9762305495779</v>
+        <v>112.0660323723303</v>
       </c>
       <c r="I3" t="n">
-        <v>88.47255136081093</v>
+        <v>88.79268955727146</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>98.49142681748486</v>
+        <v>99.06873590144605</v>
       </c>
       <c r="S3" t="n">
-        <v>171.1846379684609</v>
+        <v>171.3573494668062</v>
       </c>
       <c r="T3" t="n">
-        <v>200.0565464158579</v>
+        <v>200.0940250149085</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9396163201648</v>
+        <v>225.9402280492026</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27551,19 +27551,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9684779693381</v>
+        <v>167.9762733360933</v>
       </c>
       <c r="H4" t="n">
-        <v>162.0271147023483</v>
+        <v>162.0964225994991</v>
       </c>
       <c r="I4" t="n">
-        <v>154.7737967889741</v>
+        <v>155.0082247273943</v>
       </c>
       <c r="J4" t="n">
-        <v>91.76833190583969</v>
+        <v>92.31946433543267</v>
       </c>
       <c r="K4" t="n">
-        <v>19.65523952622401</v>
+        <v>20.5609194092378</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,22 +27578,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.9428141755567603</v>
       </c>
       <c r="Q4" t="n">
-        <v>84.27785874996061</v>
+        <v>84.93061441525326</v>
       </c>
       <c r="R4" t="n">
-        <v>176.2816470990699</v>
+        <v>176.6321551351721</v>
       </c>
       <c r="S4" t="n">
-        <v>223.6244601920234</v>
+        <v>223.7603121744755</v>
       </c>
       <c r="T4" t="n">
-        <v>227.8494471293112</v>
+        <v>227.8827546054471</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3178020079934</v>
+        <v>286.3182272098164</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27633,13 +27633,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.2956776076741</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I5" t="n">
-        <v>206.0371542990026</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J5" t="n">
-        <v>2.17736515407389</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>142.6367801033366</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S5" t="n">
-        <v>206.396434802584</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T5" t="n">
-        <v>222.591846875575</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3364421219805</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27709,13 +27709,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.281914601911</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
-        <v>111.6404931839443</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>87.2756674733339</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>96.33307161861546</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S6" t="n">
-        <v>170.5389305463634</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
-        <v>199.9164271429163</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9373292808893</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27788,19 +27788,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9393338404293</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H7" t="n">
-        <v>161.7679969016864</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>153.8973533486984</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J7" t="n">
-        <v>89.70784199198705</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K7" t="n">
-        <v>16.26922164027355</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>81.83743537378771</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R7" t="n">
-        <v>174.9712210846794</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S7" t="n">
-        <v>223.1165575091309</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T7" t="n">
-        <v>227.7249222148827</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3162123282347</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C11" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D11" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E11" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F11" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G11" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H11" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T11" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U11" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V11" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W11" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X11" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y11" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C13" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D13" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E13" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F13" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G13" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H13" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I13" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J13" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K13" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L13" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M13" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N13" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O13" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P13" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R13" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S13" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T13" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U13" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V13" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W13" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X13" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C14" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D14" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E14" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F14" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G14" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H14" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T14" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U14" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V14" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W14" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X14" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y14" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C16" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D16" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E16" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F16" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G16" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H16" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I16" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J16" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K16" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L16" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M16" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N16" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O16" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P16" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R16" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S16" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T16" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U16" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V16" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W16" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X16" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="17">
@@ -28584,7 +28584,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -29000,7 +29000,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="Q22" t="n">
         <v>46.97513661859256</v>
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="29">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="C29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="D29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="E29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="G29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="H29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="T29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="U29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="V29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="W29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="X29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Y29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="C31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="D31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="E31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="G31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="H31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="I31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="J31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="K31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="L31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="M31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="N31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="O31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="P31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Q31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="R31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="S31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="T31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="U31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="V31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="W31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="X31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Y31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
     </row>
     <row r="32">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>10.79641369133322</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05016298716719412</v>
+        <v>0.03278455419990355</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5137316923260269</v>
+        <v>0.3357548156997623</v>
       </c>
       <c r="I2" t="n">
-        <v>1.933908562763253</v>
+        <v>1.263926525791783</v>
       </c>
       <c r="J2" t="n">
-        <v>4.257520832081646</v>
+        <v>2.782548057024067</v>
       </c>
       <c r="K2" t="n">
-        <v>6.380920078868974</v>
+        <v>4.170318236305985</v>
       </c>
       <c r="L2" t="n">
-        <v>7.916095597386993</v>
+        <v>5.173648536901284</v>
       </c>
       <c r="M2" t="n">
-        <v>8.80818162042158</v>
+        <v>5.756680852653819</v>
       </c>
       <c r="N2" t="n">
-        <v>8.950707207710371</v>
+        <v>5.849829967274296</v>
       </c>
       <c r="O2" t="n">
-        <v>8.451899004066584</v>
+        <v>5.523828556449004</v>
       </c>
       <c r="P2" t="n">
-        <v>7.213500258376478</v>
+        <v>4.714459874638885</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.417038280451338</v>
+        <v>3.540363027354838</v>
       </c>
       <c r="R2" t="n">
-        <v>3.15105074264126</v>
+        <v>2.059402752759694</v>
       </c>
       <c r="S2" t="n">
-        <v>1.143089070072437</v>
+        <v>0.7470780288303031</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2195884763243924</v>
+        <v>0.1435143860100779</v>
       </c>
       <c r="U2" t="n">
-        <v>0.004013038973375529</v>
+        <v>0.002622764335992284</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02683956431308884</v>
+        <v>0.01754128293818426</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2592136869185159</v>
+        <v>0.169411864166148</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9240814906041552</v>
+        <v>0.6039432941436248</v>
       </c>
       <c r="J3" t="n">
-        <v>2.535750240650205</v>
+        <v>1.657266560400997</v>
       </c>
       <c r="K3" t="n">
-        <v>4.334001049627156</v>
+        <v>2.832532517259342</v>
       </c>
       <c r="L3" t="n">
-        <v>5.827599260173083</v>
+        <v>3.808689525679</v>
       </c>
       <c r="M3" t="n">
-        <v>6.800533466522552</v>
+        <v>4.444561032188178</v>
       </c>
       <c r="N3" t="n">
-        <v>6.980523351762521</v>
+        <v>4.56219533750609</v>
       </c>
       <c r="O3" t="n">
-        <v>6.385815110930395</v>
+        <v>4.173517436612638</v>
       </c>
       <c r="P3" t="n">
-        <v>5.125179609926587</v>
+        <v>3.349615686678361</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.426046841088322</v>
+        <v>2.239129379968924</v>
       </c>
       <c r="R3" t="n">
-        <v>1.666407335158271</v>
+        <v>1.08909825119709</v>
       </c>
       <c r="S3" t="n">
-        <v>0.498533135376891</v>
+        <v>0.3258216370316241</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1081822789637221</v>
+        <v>0.07070367991311986</v>
       </c>
       <c r="U3" t="n">
-        <v>0.001765760810071635</v>
+        <v>0.001154031772248965</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02250138912069426</v>
+        <v>0.01470602236548953</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2000578050912637</v>
+        <v>0.1307499079404434</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6766781382841512</v>
+        <v>0.4422501998639945</v>
       </c>
       <c r="J4" t="n">
-        <v>1.590848210833084</v>
+        <v>1.03971578124011</v>
       </c>
       <c r="K4" t="n">
-        <v>2.614252299658842</v>
+        <v>1.708572416645056</v>
       </c>
       <c r="L4" t="n">
-        <v>3.345342887998491</v>
+        <v>2.186384452411053</v>
       </c>
       <c r="M4" t="n">
-        <v>3.527195023710282</v>
+        <v>2.305235851346691</v>
       </c>
       <c r="N4" t="n">
-        <v>3.443326209714971</v>
+        <v>2.250422495257141</v>
       </c>
       <c r="O4" t="n">
-        <v>3.180469073168677</v>
+        <v>2.07862941580574</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>1.778626559549752</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.884184501733771</v>
+        <v>1.231428836441128</v>
       </c>
       <c r="R4" t="n">
-        <v>1.01174427809958</v>
+        <v>0.6612362419973747</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3921378449488262</v>
+        <v>0.2562858624967584</v>
       </c>
       <c r="T4" t="n">
-        <v>0.09614229897023908</v>
+        <v>0.06283482283436435</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001227348497492416</v>
+        <v>0.0008021466744812483</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1151348231996185</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H5" t="n">
-        <v>1.179124508093093</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I5" t="n">
-        <v>4.438735271403296</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J5" t="n">
-        <v>9.771924200538628</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K5" t="n">
-        <v>14.64558126657848</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L5" t="n">
-        <v>18.16913861207381</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M5" t="n">
-        <v>20.21666752415002</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N5" t="n">
-        <v>20.54379434056594</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O5" t="n">
-        <v>19.39892244237473</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P5" t="n">
-        <v>16.55653149463415</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q5" t="n">
-        <v>12.43326563879781</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>7.232337837813041</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S5" t="n">
-        <v>2.623634783661309</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5040026885563301</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U5" t="n">
-        <v>0.009210785855969477</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06160256129968271</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5949510525521988</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I6" t="n">
-        <v>2.120965378081181</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J6" t="n">
-        <v>5.820091109458182</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K6" t="n">
-        <v>9.947462716536922</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L6" t="n">
-        <v>13.37559121552979</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M6" t="n">
-        <v>15.60868406264329</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N6" t="n">
-        <v>16.02179948469248</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O6" t="n">
-        <v>14.65681641589424</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P6" t="n">
-        <v>11.76338734151573</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q6" t="n">
-        <v>7.863512912570025</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R6" t="n">
-        <v>3.82476253402767</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S6" t="n">
-        <v>1.144240557474369</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2483015519052999</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004052800085505443</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05164551802950103</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4591756057532004</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I7" t="n">
-        <v>1.553121578559904</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J7" t="n">
-        <v>3.651338124685722</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K7" t="n">
-        <v>6.0002701856093</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L7" t="n">
-        <v>7.678280016858727</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M7" t="n">
-        <v>8.095669703478965</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N7" t="n">
-        <v>7.90317277264174</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O7" t="n">
-        <v>7.299859221115293</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P7" t="n">
-        <v>6.246290653313467</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.324607877906672</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R7" t="n">
-        <v>2.322170292490109</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9000405278413949</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T7" t="n">
-        <v>0.220667213398777</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002817028256154605</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32551,7 +32551,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32797,7 +32797,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837925</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33037,7 +33037,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33754,10 +33754,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33979,7 +33979,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34453,7 +34453,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.15534638599217</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K13" t="n">
-        <v>247.6245893172455</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L13" t="n">
-        <v>361.334301943124</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M13" t="n">
-        <v>389.2103091664098</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>386.433875940466</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
-        <v>343.9300599955657</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P13" t="n">
-        <v>276.5340009180364</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q13" t="n">
-        <v>119.9711683108196</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.15534638599217</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K16" t="n">
-        <v>247.6245893172455</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>361.334301943124</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M16" t="n">
-        <v>389.2103091664098</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>386.433875940466</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O16" t="n">
-        <v>343.9300599955657</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>276.5340009180364</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
-        <v>119.9711683108196</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K19" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L19" t="n">
         <v>366.7325087887907</v>
@@ -36053,10 +36053,10 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N19" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O19" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P19" t="n">
         <v>281.932207763703</v>
@@ -36129,7 +36129,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36296,7 +36296,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P22" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637028</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3693751564862</v>
@@ -36372,13 +36372,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>586.457590004947</v>
+        <v>695.9413075165244</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36445,7 +36445,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004592</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>845.608611139152</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
@@ -36612,13 +36612,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737854</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36685,7 +36685,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.15534638599217</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K28" t="n">
-        <v>247.6245893172455</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
-        <v>361.334301943124</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>389.2103091664098</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>386.433875940466</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
-        <v>343.9300599955657</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>276.5340009180364</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>119.9711683108196</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>614.411970709814</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>881.8582198576237</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -36855,7 +36855,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.15534638599217</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K31" t="n">
-        <v>247.6245893172455</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L31" t="n">
-        <v>361.334301943124</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>389.2103091664098</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>386.433875940466</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
-        <v>343.9300599955657</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P31" t="n">
-        <v>276.5340009180364</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>119.9711683108196</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>646.6743400619317</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>564.1522484625259</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687116</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37326,7 +37326,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.794304803719</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222478</v>
@@ -37402,10 +37402,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37475,7 +37475,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37566,7 +37566,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37803,7 +37803,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>56.37483030439944</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>216.8440732356528</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>330.5537858615314</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>358.429793084817</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>355.6533598588733</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>313.149543913973</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>245.7534848364436</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>89.19065222922688</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865553999</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38101,7 +38101,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>56.37483030439944</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>216.8440732356528</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>330.5537858615314</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>358.429793084817</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>355.6533598588733</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>313.149543913973</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>245.7534848364436</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>89.19065222922688</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
